--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダに対して薬局システムが対応した結果となる。</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1814,13 +1810,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1834,10 +1830,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1848,28 +1844,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1919,13 +1915,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1951,10 +1947,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1965,25 +1961,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2034,19 +2030,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2066,10 +2062,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2080,28 +2076,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2151,19 +2147,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2183,10 +2179,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2197,7 +2193,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2209,16 +2205,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2244,43 +2240,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2300,21 +2296,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2326,16 +2322,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2385,25 +2381,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2417,14 +2413,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2443,16 +2439,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2502,7 +2498,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2520,7 +2516,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2534,10 +2530,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2560,13 +2556,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2605,17 +2601,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2627,7 +2623,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2647,13 +2643,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2675,13 +2671,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2732,7 +2728,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2741,10 +2737,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2764,14 +2760,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2784,25 +2780,25 @@
         <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2851,7 +2847,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2863,13 +2859,13 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>38</v>
@@ -2883,10 +2879,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2894,7 +2890,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>40</v>
@@ -2909,16 +2905,16 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2956,17 +2952,17 @@
         <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2978,19 +2974,19 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>38</v>
@@ -2998,23 +2994,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3026,16 +3022,16 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3085,7 +3081,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3097,19 +3093,19 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>38</v>
@@ -3117,10 +3113,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3131,7 +3127,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -3143,13 +3139,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3200,25 +3196,25 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3232,14 +3228,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3258,16 +3254,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="N14" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3305,19 +3301,19 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3329,13 +3325,13 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3349,10 +3345,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3363,31 +3359,31 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3412,50 +3408,50 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="s" s="2">
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
       </c>
@@ -3463,15 +3459,15 @@
         <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3482,31 +3478,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3531,66 +3527,66 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3598,118 +3594,118 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3717,31 +3713,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3791,42 +3787,42 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3837,25 +3833,25 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3906,42 +3902,42 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3952,28 +3948,28 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4023,45 +4019,45 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>38</v>
@@ -4083,16 +4079,16 @@
         <v>38</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4142,7 +4138,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4154,19 +4150,19 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4174,10 +4170,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4188,7 +4184,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4200,13 +4196,13 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4257,25 +4253,25 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4289,14 +4285,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4315,16 +4311,16 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4362,19 +4358,19 @@
         <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4386,13 +4382,13 @@
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4406,10 +4402,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4420,31 +4416,31 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4469,50 +4465,50 @@
         <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF24" t="s" s="2">
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
       </c>
@@ -4520,15 +4516,15 @@
         <v>38</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4539,31 +4535,31 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K25" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4588,66 +4584,66 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4655,41 +4651,41 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="N26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>38</v>
@@ -4731,42 +4727,42 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4774,31 +4770,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4848,42 +4844,42 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4894,25 +4890,25 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K28" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4963,42 +4959,42 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5009,28 +5005,28 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5080,42 +5076,42 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5138,13 +5134,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5195,7 +5191,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5207,13 +5203,13 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -5227,10 +5223,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5238,31 +5234,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="J31" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5288,55 +5284,55 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5344,10 +5340,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5358,7 +5354,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5370,13 +5366,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5403,49 +5399,49 @@
         <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5459,10 +5455,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5473,7 +5469,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5485,16 +5481,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5520,49 +5516,49 @@
         <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AA33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5576,10 +5572,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5587,31 +5583,31 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K34" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5637,66 +5633,66 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5704,31 +5700,31 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5778,42 +5774,42 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5824,7 +5820,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5836,16 +5832,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="N36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5895,25 +5891,25 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
@@ -5927,10 +5923,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5953,16 +5949,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6012,7 +6008,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6024,16 +6020,16 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6044,10 +6040,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6070,13 +6066,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6127,7 +6123,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6139,13 +6135,13 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6159,10 +6155,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6173,7 +6169,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6185,13 +6181,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6242,25 +6238,25 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6274,14 +6270,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6300,16 +6296,16 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6359,7 +6355,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6371,13 +6367,13 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6391,14 +6387,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6411,25 +6407,25 @@
         <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="N41" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6478,7 +6474,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6490,13 +6486,13 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6510,10 +6506,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6524,7 +6520,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6536,17 +6532,17 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6571,49 +6567,49 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -6627,10 +6623,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6638,10 +6634,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6653,13 +6649,13 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6710,25 +6706,25 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6742,10 +6738,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6756,7 +6752,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6768,16 +6764,16 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6827,25 +6823,25 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6859,10 +6855,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6885,16 +6881,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6944,7 +6940,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6956,30 +6952,30 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6990,7 +6986,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7002,16 +6998,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7037,66 +7033,66 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AA46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AM46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7104,10 +7100,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7119,16 +7115,16 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7178,42 +7174,42 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7224,7 +7220,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7236,16 +7232,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7295,42 +7291,42 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7341,25 +7337,25 @@
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7410,42 +7406,42 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7453,10 +7449,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7468,13 +7464,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7525,42 +7521,42 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7571,7 +7567,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7583,16 +7579,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7642,42 +7638,42 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7700,16 +7696,16 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7759,7 +7755,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7771,19 +7767,19 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -7791,10 +7787,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7817,16 +7813,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7876,7 +7872,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7888,30 +7884,30 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7934,16 +7930,16 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7993,7 +7989,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8005,13 +8001,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8025,10 +8021,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8039,7 +8035,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8051,13 +8047,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8108,31 +8104,31 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>38</v>
@@ -8140,10 +8136,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8154,7 +8150,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8166,13 +8162,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8223,25 +8219,25 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8255,14 +8251,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8281,16 +8277,16 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="N57" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8340,7 +8336,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8352,13 +8348,13 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8372,14 +8368,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8392,25 +8388,25 @@
         <v>38</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="N58" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O58" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8459,7 +8455,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8471,13 +8467,13 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
@@ -8491,10 +8487,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8502,10 +8498,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8517,13 +8513,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8574,25 +8570,25 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
@@ -8606,10 +8602,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8620,7 +8616,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8632,13 +8628,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8665,66 +8661,66 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z60" t="s" s="2">
+      <c r="AA60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AA60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>398</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8747,13 +8743,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8780,14 +8776,14 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
       </c>
@@ -8804,7 +8800,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8816,19 +8812,19 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -8836,10 +8832,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8862,16 +8858,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8921,7 +8917,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8933,19 +8929,19 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -8953,14 +8949,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8979,16 +8975,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9038,7 +9034,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9050,13 +9046,13 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
@@ -9070,10 +9066,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9096,16 +9092,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9155,7 +9151,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9167,13 +9163,13 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
